--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/运输仓储邮政、信息传输、计算机服务和软件业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/运输仓储邮政、信息传输、计算机服务和软件业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,316 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.505343496488619</v>
+        <v>0.571869564440056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009668744123047</v>
+        <v>0.013353440384059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.023416303596822</v>
+        <v>0.025950496239241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008943219997398</v>
+        <v>0.017332966205973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.122419735967392</v>
+        <v>0.157416106908904</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010821844900408</v>
+        <v>0.014193019445193</v>
       </c>
       <c r="I2" t="n">
-        <v>0.126008866780646</v>
+        <v>0.086756339980157</v>
       </c>
       <c r="J2" t="n">
-        <v>0.494656503511381</v>
+        <v>0.428130435559944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003224995967702</v>
+        <v>0.004369216366374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.019624960887263</v>
+        <v>0.028111081767259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.028522956709747</v>
+        <v>0.035586527094995</v>
       </c>
       <c r="N2" t="n">
-        <v>0.109011145441831</v>
+        <v>0.114584668278499</v>
       </c>
       <c r="O2" t="n">
-        <v>0.140968442293107</v>
+        <v>0.136400091501142</v>
       </c>
       <c r="P2" t="n">
-        <v>0.041614861430211</v>
+        <v>0.034222218430795</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.014698878551628</v>
+        <v>0.016962439549865</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006183878421372</v>
+        <v>0.006807968529749</v>
       </c>
       <c r="S2" t="n">
-        <v>0.204613039333132</v>
+        <v>0.149735770240088</v>
       </c>
       <c r="T2" t="n">
-        <v>0.072762864909712</v>
+        <v>0.08989820150027</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003569579241456</v>
+        <v>0.00361840713074</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005745009976085</v>
+        <v>0.008309457474405001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.040626219485324</v>
+        <v>0.048333635973166</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001312387224037</v>
+        <v>0.001673942853919</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00624206476168</v>
+        <v>0.006384004145209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.571869564440056</v>
+        <v>0.6009934306645019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.013353440384059</v>
+        <v>0.01402162927697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.025950496239241</v>
+        <v>0.023192539337936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.017332966205973</v>
+        <v>0.009729593899813999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.157416106908904</v>
+        <v>0.168853769752653</v>
       </c>
       <c r="H3" t="n">
-        <v>0.014193019445193</v>
+        <v>0.011335103850028</v>
       </c>
       <c r="I3" t="n">
-        <v>0.086756339980157</v>
+        <v>0.091941709670773</v>
       </c>
       <c r="J3" t="n">
-        <v>0.428130435559944</v>
+        <v>0.399006569335498</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004369216366374</v>
+        <v>0.00685997969671</v>
       </c>
       <c r="L3" t="n">
-        <v>0.028111081767259</v>
+        <v>0.030863819624178</v>
       </c>
       <c r="M3" t="n">
-        <v>0.035586527094995</v>
+        <v>0.034338495033225</v>
       </c>
       <c r="N3" t="n">
-        <v>0.114584668278499</v>
+        <v>0.108159215543005</v>
       </c>
       <c r="O3" t="n">
-        <v>0.136400091501142</v>
+        <v>0.112370209126749</v>
       </c>
       <c r="P3" t="n">
-        <v>0.034222218430795</v>
+        <v>0.014338152575245</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.016962439549865</v>
+        <v>0.011015554854349</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006807968529749</v>
+        <v>0.003297042738067</v>
       </c>
       <c r="S3" t="n">
-        <v>0.149735770240088</v>
+        <v>0.123872937336827</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08989820150027</v>
+        <v>0.147003802861446</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00361840713074</v>
+        <v>0.000665862127952</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008309457474405001</v>
+        <v>0.005071937681339</v>
       </c>
       <c r="W3" t="n">
-        <v>0.048333635973166</v>
+        <v>0.07063899729819</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001673942853919</v>
+        <v>0.001102399692272</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.006384004145209</v>
+        <v>0.01132724802227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6009934306645019</v>
+        <v>0.5907219266056239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01402162927697</v>
+        <v>0.015438312407547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.023192539337936</v>
+        <v>0.022403667975971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009729593899813999</v>
+        <v>0.006646877928785</v>
       </c>
       <c r="G4" t="n">
-        <v>0.168853769752653</v>
+        <v>0.215473995156281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.011335103850028</v>
+        <v>0.010430346870704</v>
       </c>
       <c r="I4" t="n">
-        <v>0.091941709670773</v>
+        <v>0.104171285378565</v>
       </c>
       <c r="J4" t="n">
-        <v>0.399006569335498</v>
+        <v>0.409278073394376</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00685997969671</v>
+        <v>0.006427667521043</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030863819624178</v>
+        <v>0.038106368479289</v>
       </c>
       <c r="M4" t="n">
-        <v>0.034338495033225</v>
+        <v>0.039243475946461</v>
       </c>
       <c r="N4" t="n">
-        <v>0.108159215543005</v>
+        <v>0.11490592814515</v>
       </c>
       <c r="O4" t="n">
-        <v>0.112370209126749</v>
+        <v>0.07384909299899001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.014338152575245</v>
+        <v>-0.000322348443576</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.011015554854349</v>
+        <v>0.007792535941225</v>
       </c>
       <c r="R4" t="n">
-        <v>0.003297042738067</v>
+        <v>0.003623167059966</v>
       </c>
       <c r="S4" t="n">
-        <v>0.123872937336827</v>
+        <v>0.089955141303106</v>
       </c>
       <c r="T4" t="n">
-        <v>0.147003802861446</v>
+        <v>0.163080624315547</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000665862127952</v>
+        <v>0.000447672441941</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005071937681339</v>
+        <v>0.003120876367323</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07063899729819</v>
+        <v>0.07153527942948899</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001102399692272</v>
+        <v>0.001050870725376</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01132724802227</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5907219266056239</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.015438312407547</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.022403667975971</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006646877928785</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.215473995156281</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.010430346870704</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.104171285378565</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.409278073394376</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.006427667521043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.038106368479289</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.039243475946461</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.11490592814515</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.07384909299899001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.000322348443576</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.007792535941225</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.003623167059966</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.089955141303106</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.163080624315547</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.000447672441941</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.003120876367323</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.07153527942948899</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.001050870725376</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0.012619162050818</v>
       </c>
     </row>
